--- a/lab9-10.xlsx
+++ b/lab9-10.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Тест-план" sheetId="1" state="visible" r:id="rId2"/>
@@ -82,16 +82,19 @@
     <t xml:space="preserve">Все кнопки кликабельны, переход по ссылкам осуществляется корректно</t>
   </si>
   <si>
+    <t xml:space="preserve">Протестировано. Нет ошибок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Форма-заказ фильмов (сериалов) из списка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нельзя отправить пустую форму или форму с некорректными данными, с незаполненными обязательными полями. Форма отправляется в БД. После отправки формы выводится сообщение о корректной отправке. Корректное название фильма (сериала) и его цена также отправляются в БД вместе с данными о заказчике</t>
+  </si>
+  <si>
     <t xml:space="preserve">Протестировано. Есть ошибки</t>
   </si>
   <si>
-    <t xml:space="preserve">Форма-заказ тортов из списка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Нельзя отправить пустую форму или форму с некорректными данными, с незаполненными обязательными полями. Форма отправляется в БД. После отправки формы выводится сообщение о корректной отправке. Корректное название фильма (сериала) и его цена также отправляются в БД вместе с данными о заказчике</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Страница с подробной информацией о торте</t>
+    <t xml:space="preserve">Страница с подробной информацией о фильме (сериале)</t>
   </si>
   <si>
     <t xml:space="preserve">Информация о торте на странице верна для каждого торта (выводится в соответствии с БД "films")</t>
@@ -104,9 +107,6 @@
   </si>
   <si>
     <t xml:space="preserve">Статус:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Протестировано. Нет ошибок</t>
   </si>
   <si>
     <t xml:space="preserve">Дефект:</t>
@@ -662,7 +662,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -905,10 +905,6 @@
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1042,8 +1038,8 @@
   </sheetPr>
   <dimension ref="C2:F25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1103,7 +1099,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="24.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="7" t="s">
         <v>10</v>
       </c>
@@ -1117,7 +1113,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="94.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="94" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="7" t="s">
         <v>13</v>
       </c>
@@ -1128,21 +1124,21 @@
         <v>14</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="36.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D18" s="8" t="n">
         <v>2</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1199,11 +1195,11 @@
   </sheetPr>
   <dimension ref="B2:G23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="27.35"/>
@@ -1212,16 +1208,16 @@
   <sheetData>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E2" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E3" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1472,7 +1468,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
@@ -1491,7 +1487,7 @@
       <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="27.35"/>
@@ -1506,7 +1502,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E3" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>47</v>
@@ -1735,7 +1731,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
@@ -1754,7 +1750,7 @@
       <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="27.35"/>
@@ -1769,10 +1765,10 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E3" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1905,7 +1901,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
@@ -1918,13 +1914,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:F5"/>
+  <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3984375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.40625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.22"/>
@@ -1974,7 +1970,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
@@ -1989,15 +1985,15 @@
   </sheetPr>
   <dimension ref="C4:E22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3984375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.40625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.02"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2052,33 +2048,33 @@
       <c r="C10" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="61" t="n">
+      <c r="D10" s="39" t="n">
         <v>32</v>
       </c>
-      <c r="E10" s="62" t="n">
+      <c r="E10" s="61" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="61" t="n">
+      <c r="D11" s="39" t="n">
         <v>31</v>
       </c>
-      <c r="E11" s="64" t="n">
+      <c r="E11" s="63" t="n">
         <f aca="false">D11/D10</f>
         <v>0.96875</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="66" t="n">
+      <c r="D12" s="65" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="67" t="n">
+      <c r="E12" s="66" t="n">
         <f aca="false">D12/D10</f>
         <v>0.03125</v>
       </c>
@@ -2089,58 +2085,58 @@
       <c r="E13" s="54"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="68" t="s">
+      <c r="C14" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="69" t="n">
+      <c r="D14" s="68" t="n">
         <v>1</v>
       </c>
-      <c r="E14" s="69"/>
+      <c r="E14" s="68"/>
     </row>
     <row r="15" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="70" t="n">
+      <c r="D15" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="E15" s="70"/>
+      <c r="E15" s="69"/>
     </row>
     <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="70" t="n">
+      <c r="D16" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="E16" s="70"/>
+      <c r="E16" s="69"/>
     </row>
     <row r="17" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="70" t="n">
+      <c r="D17" s="69" t="n">
         <v>1</v>
       </c>
-      <c r="E17" s="70"/>
+      <c r="E17" s="69"/>
     </row>
     <row r="18" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="70" t="n">
+      <c r="D18" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="E18" s="70"/>
+      <c r="E18" s="69"/>
     </row>
     <row r="19" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="71" t="s">
+      <c r="C19" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="72" t="n">
+      <c r="D19" s="71" t="n">
         <v>0</v>
       </c>
-      <c r="E19" s="72"/>
+      <c r="E19" s="71"/>
     </row>
     <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="54"/>
@@ -2148,18 +2144,18 @@
       <c r="E20" s="54"/>
     </row>
     <row r="21" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="73" t="s">
+      <c r="C21" s="72" t="s">
         <v>92</v>
       </c>
       <c r="D21" s="54"/>
       <c r="E21" s="54"/>
     </row>
     <row r="22" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="74" t="s">
+      <c r="C22" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2173,7 +2169,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
